--- a/projectOrientedLabs/Lab1- Authors and Books/data modelling exercise/data modelling exercises.xlsx
+++ b/projectOrientedLabs/Lab1- Authors and Books/data modelling exercise/data modelling exercises.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.shah\IdeaProjects\DynamoDB Master Class\Learn-DynamoDB-and-Become-Expert-in-fun-and-Easy-way-0-to-hero-with-Labs-\projectOrientedLabs\Lab1- Authors and Books\data modelling exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE1BA7-3BA7-482C-BC95-F6C4893E1D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB56C00-536E-4BED-8421-0940CBFAB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{EEA81ECE-A51B-4FAF-9465-97AAA4AEC3AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="3" xr2:uid="{EEA81ECE-A51B-4FAF-9465-97AAA4AEC3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="2" r:id="rId1"/>
     <sheet name="Access Pattern" sheetId="3" r:id="rId2"/>
     <sheet name="Design_1" sheetId="4" r:id="rId3"/>
+    <sheet name="Design_2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Book_B1">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>PK</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>GSI3pk</t>
   </si>
 </sst>
 </file>
@@ -204,7 +208,7 @@
       <name val="Poppins"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +257,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -266,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -298,6 +314,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -616,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7FF4FC-AFDD-4AC7-B83F-4BF3E8A9B78E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -761,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F532AB-BC8F-430D-B447-AFF20CFF99D8}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,7 +1020,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
@@ -1065,4 +1091,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A52D74-9153-42B5-B4A1-74270392BFCF}">
+  <dimension ref="A2:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9">
+        <v>676745</v>
+      </c>
+      <c r="G6" s="9">
+        <v>230</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>676745</v>
+      </c>
+      <c r="G7" s="9">
+        <v>230</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9">
+        <v>676750</v>
+      </c>
+      <c r="G8" s="9">
+        <v>100</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projectOrientedLabs/Lab1- Authors and Books/data modelling exercise/data modelling exercises.xlsx
+++ b/projectOrientedLabs/Lab1- Authors and Books/data modelling exercise/data modelling exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.shah\IdeaProjects\DynamoDB Master Class\Learn-DynamoDB-and-Become-Expert-in-fun-and-Easy-way-0-to-hero-with-Labs-\projectOrientedLabs\Lab1- Authors and Books\data modelling exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB56C00-536E-4BED-8421-0940CBFAB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ED3F2-79DF-4172-BF4D-A0971F992177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="3" xr2:uid="{EEA81ECE-A51B-4FAF-9465-97AAA4AEC3AF}"/>
+    <workbookView xWindow="-10752" yWindow="1992" windowWidth="19704" windowHeight="10308" activeTab="2" xr2:uid="{EEA81ECE-A51B-4FAF-9465-97AAA4AEC3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>PK</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>GSI3pk</t>
+  </si>
+  <si>
+    <t>Book#1#Author#1#categories#1</t>
+  </si>
+  <si>
+    <t>Book#1#Author#1#categories#2</t>
+  </si>
+  <si>
+    <t>Book#2#Author#2#categories#1</t>
+  </si>
+  <si>
+    <t>GSI2</t>
   </si>
 </sst>
 </file>
@@ -310,20 +322,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -643,7 +655,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB35CD7-CCEC-484E-8C8A-AB795BAFE8FD}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,14 +799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F532AB-BC8F-430D-B447-AFF20CFF99D8}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
@@ -839,7 +851,9 @@
       <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -882,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
@@ -899,18 +913,25 @@
       <c r="G6" s="9">
         <v>230</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="I6" s="9">
         <v>100</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
@@ -927,20 +948,25 @@
       <c r="G7" s="9">
         <v>230</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="9">
         <v>100</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>4</v>
+      <c r="J7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
@@ -957,18 +983,25 @@
       <c r="G8" s="9">
         <v>100</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="I8" s="9">
         <v>20</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
+      <c r="J8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -976,56 +1009,48 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1037,9 +1062,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1051,10 +1075,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1065,10 +1087,8 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1079,14 +1099,12 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -1097,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A52D74-9153-42B5-B4A1-74270392BFCF}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,12 +1262,12 @@
       <c r="I7" s="9">
         <v>100</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1274,15 +1292,15 @@
       <c r="I8" s="9">
         <v>20</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="9"/>
@@ -1300,10 +1318,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
@@ -1321,10 +1339,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="9"/>
@@ -1341,7 +1359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
